--- a/public/uploads/excel/branches.xlsx
+++ b/public/uploads/excel/branches.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam\Desktop\empty downloaded excel file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam\Documents\GitHub\UFS-Back\public\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>company_code</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city_code</t>
+  </si>
+  <si>
+    <t>area_code</t>
   </si>
 </sst>
 </file>
@@ -347,24 +359,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/excel/branches.xlsx
+++ b/public/uploads/excel/branches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam\Documents\GitHub\UFS-Back\public\uploads\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UFS-Back\public\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6535591-0BC9-444E-96BD-00803AF0D056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -36,9 +37,6 @@
   </si>
   <si>
     <t>address</t>
-  </si>
-  <si>
-    <t>city_code</t>
   </si>
   <si>
     <t>area_code</t>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,11 +356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,11 +369,10 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="53.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,9 +387,6 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
